--- a/Code/Results/Cases/Case_9_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81650626313235</v>
+        <v>13.45066350640515</v>
       </c>
       <c r="C2">
-        <v>7.902814594250172</v>
+        <v>7.512275819024385</v>
       </c>
       <c r="D2">
-        <v>6.143303239762172</v>
+        <v>6.187947619752205</v>
       </c>
       <c r="E2">
-        <v>8.492741040125118</v>
+        <v>8.391440693989793</v>
       </c>
       <c r="F2">
-        <v>22.43619233166363</v>
+        <v>21.8442687529791</v>
       </c>
       <c r="G2">
-        <v>25.19941219351544</v>
+        <v>23.86626162108089</v>
       </c>
       <c r="H2">
-        <v>2.819964017109724</v>
+        <v>2.700937744958349</v>
       </c>
       <c r="I2">
-        <v>3.565474724381931</v>
+        <v>3.403509419932753</v>
       </c>
       <c r="J2">
-        <v>9.953438584644985</v>
+        <v>9.981410602590371</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.108651248475176</v>
+        <v>12.90975670541764</v>
       </c>
       <c r="M2">
-        <v>10.68438591934894</v>
+        <v>10.83637587871713</v>
       </c>
       <c r="N2">
-        <v>6.637718178014879</v>
+        <v>6.030996572584141</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.71586990650741</v>
       </c>
       <c r="P2">
-        <v>13.31962486448158</v>
+        <v>6.849668698473077</v>
       </c>
       <c r="Q2">
-        <v>16.42640856561416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>13.16520049122852</v>
+      </c>
+      <c r="S2">
+        <v>15.96828871562997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.98877323635562</v>
+        <v>12.65342716556376</v>
       </c>
       <c r="C3">
-        <v>7.804762521927609</v>
+        <v>7.354184565451384</v>
       </c>
       <c r="D3">
-        <v>5.931978408249837</v>
+        <v>5.976064495170205</v>
       </c>
       <c r="E3">
-        <v>8.337194052617221</v>
+        <v>8.24861075404098</v>
       </c>
       <c r="F3">
-        <v>22.23195144070256</v>
+        <v>21.67744042907014</v>
       </c>
       <c r="G3">
-        <v>24.96952578008931</v>
+        <v>23.73758049039055</v>
       </c>
       <c r="H3">
-        <v>2.996142543049024</v>
+        <v>2.866144059640496</v>
       </c>
       <c r="I3">
-        <v>3.700180743530659</v>
+        <v>3.523917396224123</v>
       </c>
       <c r="J3">
-        <v>9.979425638339617</v>
+        <v>9.984535203204539</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.073080774210887</v>
+        <v>13.03621921863594</v>
       </c>
       <c r="M3">
-        <v>10.07061914876269</v>
+        <v>10.84298371372545</v>
       </c>
       <c r="N3">
-        <v>6.452728374874487</v>
+        <v>5.999671394126125</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.10590978434225</v>
       </c>
       <c r="P3">
-        <v>13.44427803354493</v>
+        <v>6.659498855753027</v>
       </c>
       <c r="Q3">
-        <v>16.4103446778656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.27946675944238</v>
+      </c>
+      <c r="S3">
+        <v>15.9747649828827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45128983253691</v>
+        <v>12.1345709614455</v>
       </c>
       <c r="C4">
-        <v>7.743700827442082</v>
+        <v>7.256348630803232</v>
       </c>
       <c r="D4">
-        <v>5.799394982011833</v>
+        <v>5.843270107782622</v>
       </c>
       <c r="E4">
-        <v>8.239667879376018</v>
+        <v>8.159001280227312</v>
       </c>
       <c r="F4">
-        <v>22.11208524059888</v>
+        <v>21.57959703909369</v>
       </c>
       <c r="G4">
-        <v>24.83642692754234</v>
+        <v>23.66798949180375</v>
       </c>
       <c r="H4">
-        <v>3.108569172679452</v>
+        <v>2.971607311381077</v>
       </c>
       <c r="I4">
-        <v>3.786833292491987</v>
+        <v>3.601662474203839</v>
       </c>
       <c r="J4">
-        <v>9.997765227077981</v>
+        <v>9.987360221052423</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.050397809897325</v>
+        <v>13.11526014320597</v>
       </c>
       <c r="M4">
-        <v>9.673127344407138</v>
+        <v>10.86292741042316</v>
       </c>
       <c r="N4">
-        <v>6.337237085311688</v>
+        <v>5.979600703914121</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.710980926867864</v>
       </c>
       <c r="P4">
-        <v>13.52253823572804</v>
+        <v>6.541138236052027</v>
       </c>
       <c r="Q4">
-        <v>16.40531539718452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.3515437677357</v>
+      </c>
+      <c r="S4">
+        <v>15.9827049956636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21995595194172</v>
+        <v>11.91072146947907</v>
       </c>
       <c r="C5">
-        <v>7.720647475908421</v>
+        <v>7.219187406159318</v>
       </c>
       <c r="D5">
-        <v>5.745095143546094</v>
+        <v>5.788923576704271</v>
       </c>
       <c r="E5">
-        <v>8.198282231683331</v>
+        <v>8.12087625648827</v>
       </c>
       <c r="F5">
-        <v>22.05922804651212</v>
+        <v>21.53547092991989</v>
       </c>
       <c r="G5">
-        <v>24.77529528391013</v>
+        <v>23.63307256514993</v>
       </c>
       <c r="H5">
-        <v>3.155757021097252</v>
+        <v>3.015891785244066</v>
       </c>
       <c r="I5">
-        <v>3.825655933219081</v>
+        <v>3.637252495287843</v>
       </c>
       <c r="J5">
-        <v>10.00437899979474</v>
+        <v>9.987243799143682</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.040409897241314</v>
+        <v>13.14384445653015</v>
       </c>
       <c r="M5">
-        <v>9.505981010270133</v>
+        <v>10.87292820327543</v>
       </c>
       <c r="N5">
-        <v>6.291139311535188</v>
+        <v>5.970694559098491</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.544945613742282</v>
       </c>
       <c r="P5">
-        <v>13.55466443049768</v>
+        <v>6.493946715680504</v>
       </c>
       <c r="Q5">
-        <v>16.400819794986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.38127076701018</v>
+      </c>
+      <c r="S5">
+        <v>15.98329896975678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17493410750162</v>
+        <v>11.86687848004489</v>
       </c>
       <c r="C6">
-        <v>7.7193416518106</v>
+        <v>7.216569018024408</v>
       </c>
       <c r="D6">
-        <v>5.736491870105696</v>
+        <v>5.780318750577437</v>
       </c>
       <c r="E6">
-        <v>8.189957893955906</v>
+        <v>8.113108762407723</v>
       </c>
       <c r="F6">
-        <v>22.04390763394898</v>
+        <v>21.52159447735457</v>
       </c>
       <c r="G6">
-        <v>24.75436292379576</v>
+        <v>23.61656462761717</v>
       </c>
       <c r="H6">
-        <v>3.164015079077639</v>
+        <v>3.023654758300849</v>
       </c>
       <c r="I6">
-        <v>3.835380450810064</v>
+        <v>3.647005046721052</v>
       </c>
       <c r="J6">
-        <v>10.00374020738077</v>
+        <v>9.98541176056823</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.038088050636738</v>
+        <v>13.14375842170002</v>
       </c>
       <c r="M6">
-        <v>9.477879798809422</v>
+        <v>10.87224833217372</v>
       </c>
       <c r="N6">
-        <v>6.285168935549441</v>
+        <v>5.968572450897725</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.517037854899163</v>
       </c>
       <c r="P6">
-        <v>13.55978050363593</v>
+        <v>6.487788572047869</v>
       </c>
       <c r="Q6">
-        <v>16.39569500226419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.3860836512525</v>
+      </c>
+      <c r="S6">
+        <v>15.979035455917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43170391912417</v>
+        <v>12.11158179849406</v>
       </c>
       <c r="C7">
-        <v>7.75033318691271</v>
+        <v>7.263443641143419</v>
       </c>
       <c r="D7">
-        <v>5.799878794486406</v>
+        <v>5.846643135457396</v>
       </c>
       <c r="E7">
-        <v>8.235256380195771</v>
+        <v>8.155399519570411</v>
       </c>
       <c r="F7">
-        <v>22.09333954391257</v>
+        <v>21.55111804666146</v>
       </c>
       <c r="G7">
-        <v>24.80593013040655</v>
+        <v>23.70633560205664</v>
       </c>
       <c r="H7">
-        <v>3.11015820229032</v>
+        <v>2.973618049950326</v>
       </c>
       <c r="I7">
-        <v>3.795855968238626</v>
+        <v>3.612583756054477</v>
       </c>
       <c r="J7">
-        <v>9.993023293354158</v>
+        <v>9.951999308766762</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.048503502747821</v>
+        <v>13.0979756587618</v>
       </c>
       <c r="M7">
-        <v>9.670791890978373</v>
+        <v>10.8529716709286</v>
       </c>
       <c r="N7">
-        <v>6.341239638769284</v>
+        <v>5.977492976775782</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.705003597845877</v>
       </c>
       <c r="P7">
-        <v>13.52235240771797</v>
+        <v>6.544861078709379</v>
       </c>
       <c r="Q7">
-        <v>16.39312645807402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.35149084754039</v>
+      </c>
+      <c r="S7">
+        <v>15.963477863512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.51695430507741</v>
+        <v>13.15113554236151</v>
       </c>
       <c r="C8">
-        <v>7.878510317918624</v>
+        <v>7.464016793265896</v>
       </c>
       <c r="D8">
-        <v>6.072609716030284</v>
+        <v>6.126267237189344</v>
       </c>
       <c r="E8">
-        <v>8.434600297036503</v>
+        <v>8.34016274886768</v>
       </c>
       <c r="F8">
-        <v>22.34115785663663</v>
+        <v>21.73008127285507</v>
       </c>
       <c r="G8">
-        <v>25.07981477318753</v>
+        <v>24.00810159834523</v>
       </c>
       <c r="H8">
-        <v>2.881023775959148</v>
+        <v>2.759721644420794</v>
       </c>
       <c r="I8">
-        <v>3.621879327750921</v>
+        <v>3.458304677428663</v>
       </c>
       <c r="J8">
-        <v>9.955560202657429</v>
+        <v>9.876882191044189</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.094302637662551</v>
+        <v>12.92308022878302</v>
       </c>
       <c r="M8">
-        <v>10.47694927612508</v>
+        <v>10.81403597943957</v>
       </c>
       <c r="N8">
-        <v>6.580278625047052</v>
+        <v>6.017314829354461</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.49834936321036</v>
       </c>
       <c r="P8">
-        <v>13.36166267926496</v>
+        <v>6.789609150022898</v>
       </c>
       <c r="Q8">
-        <v>16.40395233280397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>13.20401222931436</v>
+      </c>
+      <c r="S8">
+        <v>15.93025506660854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.43642196385703</v>
+        <v>14.99383159124527</v>
       </c>
       <c r="C9">
-        <v>8.110717588060897</v>
+        <v>7.840678160537593</v>
       </c>
       <c r="D9">
-        <v>6.58005476871999</v>
+        <v>6.63745313645112</v>
       </c>
       <c r="E9">
-        <v>8.814874758735723</v>
+        <v>8.690103289608091</v>
       </c>
       <c r="F9">
-        <v>22.90186035252198</v>
+        <v>22.18489722797004</v>
       </c>
       <c r="G9">
-        <v>25.73279731151277</v>
+        <v>24.47567322854085</v>
       </c>
       <c r="H9">
-        <v>2.46334444952598</v>
+        <v>2.36846872240814</v>
       </c>
       <c r="I9">
-        <v>3.297787917194338</v>
+        <v>3.167830360846759</v>
       </c>
       <c r="J9">
-        <v>9.910016018888353</v>
+        <v>9.853424017247715</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.180463496801075</v>
+        <v>12.62878092943186</v>
       </c>
       <c r="M9">
-        <v>11.89249622649946</v>
+        <v>10.88925190370632</v>
       </c>
       <c r="N9">
-        <v>7.023964648085491</v>
+        <v>6.092730581223305</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.90380727988681</v>
       </c>
       <c r="P9">
-        <v>13.06067089092275</v>
+        <v>7.247555709596183</v>
       </c>
       <c r="Q9">
-        <v>16.48602710559375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.93045177959073</v>
+      </c>
+      <c r="S9">
+        <v>15.94502169333954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.65165170482489</v>
+        <v>16.14336803433213</v>
       </c>
       <c r="C10">
-        <v>8.294975592754861</v>
+        <v>8.12204412866075</v>
       </c>
       <c r="D10">
-        <v>6.892502380964769</v>
+        <v>6.967021773864024</v>
       </c>
       <c r="E10">
-        <v>8.993127678349936</v>
+        <v>8.853354205729932</v>
       </c>
       <c r="F10">
-        <v>23.22743468595655</v>
+        <v>22.38260155744973</v>
       </c>
       <c r="G10">
-        <v>26.10624633598523</v>
+        <v>25.12286636887115</v>
       </c>
       <c r="H10">
-        <v>2.203588612982522</v>
+        <v>2.129236509663895</v>
       </c>
       <c r="I10">
-        <v>3.087870167323025</v>
+        <v>2.984606399136986</v>
       </c>
       <c r="J10">
-        <v>9.865006825370223</v>
+        <v>9.655697494160872</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.214809930156188</v>
+        <v>12.36206174647496</v>
       </c>
       <c r="M10">
-        <v>12.81904336718418</v>
+        <v>10.9580490249372</v>
       </c>
       <c r="N10">
-        <v>7.265550807303538</v>
+        <v>6.120191826292736</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.80704976468948</v>
       </c>
       <c r="P10">
-        <v>12.84824551677988</v>
+        <v>7.497810228662099</v>
       </c>
       <c r="Q10">
-        <v>16.51130631358474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.74284947716294</v>
+      </c>
+      <c r="S10">
+        <v>15.88160283221008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79114040442188</v>
+        <v>16.26631510529861</v>
       </c>
       <c r="C11">
-        <v>8.52523241263215</v>
+        <v>8.395439099770694</v>
       </c>
       <c r="D11">
-        <v>6.669225373866442</v>
+        <v>6.771761578782372</v>
       </c>
       <c r="E11">
-        <v>8.354591721488406</v>
+        <v>8.232920961392256</v>
       </c>
       <c r="F11">
-        <v>22.4617929091558</v>
+        <v>21.53336771198088</v>
       </c>
       <c r="G11">
-        <v>25.10580208468609</v>
+        <v>24.99752981819582</v>
       </c>
       <c r="H11">
-        <v>3.070232069735438</v>
+        <v>3.023435278247007</v>
       </c>
       <c r="I11">
-        <v>3.049750140061248</v>
+        <v>2.960304008099934</v>
       </c>
       <c r="J11">
-        <v>9.651703203807466</v>
+        <v>9.171159610884718</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.057699646708315</v>
+        <v>11.93635086064522</v>
       </c>
       <c r="M11">
-        <v>13.1246326873113</v>
+        <v>10.64060250303147</v>
       </c>
       <c r="N11">
-        <v>6.756591241845119</v>
+        <v>5.977846206374879</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.07482417876001</v>
       </c>
       <c r="P11">
-        <v>12.77220572411637</v>
+        <v>6.976696517711363</v>
       </c>
       <c r="Q11">
-        <v>16.0362702077806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.70013360027405</v>
+      </c>
+      <c r="S11">
+        <v>15.34754209660374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.67664128361406</v>
+        <v>16.16134119062924</v>
       </c>
       <c r="C12">
-        <v>8.688157573939545</v>
+        <v>8.569933708756322</v>
       </c>
       <c r="D12">
-        <v>6.410178372786701</v>
+        <v>6.52336677325039</v>
       </c>
       <c r="E12">
-        <v>7.845946755571156</v>
+        <v>7.739226803564309</v>
       </c>
       <c r="F12">
-        <v>21.76288609208284</v>
+        <v>20.82776793251776</v>
       </c>
       <c r="G12">
-        <v>24.21125594824956</v>
+        <v>24.53171220220981</v>
       </c>
       <c r="H12">
-        <v>4.36358885925137</v>
+        <v>4.331470774340345</v>
       </c>
       <c r="I12">
-        <v>3.042695154707284</v>
+        <v>2.955566719409782</v>
       </c>
       <c r="J12">
-        <v>9.486353899644911</v>
+        <v>8.933464168287397</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.974101509588279</v>
+        <v>11.67411118939858</v>
       </c>
       <c r="M12">
-        <v>13.19397811408899</v>
+        <v>10.3805165215227</v>
       </c>
       <c r="N12">
-        <v>6.28412958026848</v>
+        <v>5.909007213019088</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.12701219005848</v>
       </c>
       <c r="P12">
-        <v>12.76395547238362</v>
+        <v>6.492138686310336</v>
       </c>
       <c r="Q12">
-        <v>15.64295248938675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.71379366808373</v>
+      </c>
+      <c r="S12">
+        <v>14.95139563149039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.33670989492589</v>
+        <v>15.85858611880375</v>
       </c>
       <c r="C13">
-        <v>8.818362984804525</v>
+        <v>8.70109600556528</v>
       </c>
       <c r="D13">
-        <v>6.104550521428431</v>
+        <v>6.209867610629529</v>
       </c>
       <c r="E13">
-        <v>7.411283622995538</v>
+        <v>7.318060337968431</v>
       </c>
       <c r="F13">
-        <v>21.04252335383937</v>
+        <v>20.18013698083849</v>
       </c>
       <c r="G13">
-        <v>23.29381519095157</v>
+        <v>23.54935540603463</v>
       </c>
       <c r="H13">
-        <v>5.741194089363217</v>
+        <v>5.714902299005863</v>
       </c>
       <c r="I13">
-        <v>3.073224105408578</v>
+        <v>2.981647665316506</v>
       </c>
       <c r="J13">
-        <v>9.340655302972459</v>
+        <v>8.871149918264797</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.939817729770581</v>
+        <v>11.49985972003184</v>
       </c>
       <c r="M13">
-        <v>13.08800172675064</v>
+        <v>10.14678743311215</v>
       </c>
       <c r="N13">
-        <v>5.816596907961817</v>
+        <v>5.889516797194203</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.02554762741047</v>
       </c>
       <c r="P13">
-        <v>12.80413756977608</v>
+        <v>6.012409597690526</v>
       </c>
       <c r="Q13">
-        <v>15.26989969629794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.76371912581837</v>
+      </c>
+      <c r="S13">
+        <v>14.63317967406527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.98781258970724</v>
+        <v>15.54843620311377</v>
       </c>
       <c r="C14">
-        <v>8.899393703097426</v>
+        <v>8.778858560718207</v>
       </c>
       <c r="D14">
-        <v>5.867683799056396</v>
+        <v>5.959657135690886</v>
       </c>
       <c r="E14">
-        <v>7.159070112971879</v>
+        <v>7.075797436668044</v>
       </c>
       <c r="F14">
-        <v>20.52546007285839</v>
+        <v>19.74657970971731</v>
       </c>
       <c r="G14">
-        <v>22.63517723932537</v>
+        <v>22.63889561042923</v>
       </c>
       <c r="H14">
-        <v>6.729467620797723</v>
+        <v>6.704933069882295</v>
       </c>
       <c r="I14">
-        <v>3.114355441674243</v>
+        <v>3.01718423845554</v>
       </c>
       <c r="J14">
-        <v>9.24717648988883</v>
+        <v>8.891749786101123</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.945208915375603</v>
+        <v>11.41085394536245</v>
       </c>
       <c r="M14">
-        <v>12.9331438442072</v>
+        <v>9.996273094961106</v>
       </c>
       <c r="N14">
-        <v>5.49849915704567</v>
+        <v>5.904497598193325</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.88342342722619</v>
       </c>
       <c r="P14">
-        <v>12.85457566896521</v>
+        <v>5.685776672475395</v>
       </c>
       <c r="Q14">
-        <v>15.01672857973569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.8140410487954</v>
+      </c>
+      <c r="S14">
+        <v>14.44131291181251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84846817015343</v>
+        <v>15.42398777827256</v>
       </c>
       <c r="C15">
-        <v>8.914325029369699</v>
+        <v>8.79231921523426</v>
       </c>
       <c r="D15">
-        <v>5.800530486515282</v>
+        <v>5.886002721860256</v>
       </c>
       <c r="E15">
-        <v>7.104730457792993</v>
+        <v>7.02422325531599</v>
       </c>
       <c r="F15">
-        <v>20.39094418005866</v>
+        <v>19.64610476791995</v>
       </c>
       <c r="G15">
-        <v>22.46256892138552</v>
+        <v>22.32042532777754</v>
       </c>
       <c r="H15">
-        <v>6.960912257570111</v>
+        <v>6.936186147414156</v>
       </c>
       <c r="I15">
-        <v>3.13690606307868</v>
+        <v>3.037686777958272</v>
       </c>
       <c r="J15">
-        <v>9.227494887502678</v>
+        <v>8.924343307746463</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.949565563980234</v>
+        <v>11.4007783174135</v>
       </c>
       <c r="M15">
-        <v>12.8572498914586</v>
+        <v>9.963069671191862</v>
       </c>
       <c r="N15">
-        <v>5.421663251660156</v>
+        <v>5.911043062629531</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.81479316551501</v>
       </c>
       <c r="P15">
-        <v>12.87588087762641</v>
+        <v>5.606997935194769</v>
       </c>
       <c r="Q15">
-        <v>14.9565514509823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.83254737013891</v>
+      </c>
+      <c r="S15">
+        <v>14.40571559255533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.38458449158477</v>
+        <v>15.00605009852322</v>
       </c>
       <c r="C16">
-        <v>8.812678705848342</v>
+        <v>8.675337990366426</v>
       </c>
       <c r="D16">
-        <v>5.718421122582784</v>
+        <v>5.777133718420266</v>
       </c>
       <c r="E16">
-        <v>7.109773781903911</v>
+        <v>7.031291623701328</v>
       </c>
       <c r="F16">
-        <v>20.37865786010607</v>
+        <v>19.74792690650106</v>
       </c>
       <c r="G16">
-        <v>22.45705459038389</v>
+        <v>21.63865498592138</v>
       </c>
       <c r="H16">
-        <v>6.770557113489552</v>
+        <v>6.739983136693627</v>
       </c>
       <c r="I16">
-        <v>3.225660817516772</v>
+        <v>3.113971436777979</v>
       </c>
       <c r="J16">
-        <v>9.273517363501217</v>
+        <v>9.190001095739134</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.937783006629856</v>
+        <v>11.53424789423811</v>
       </c>
       <c r="M16">
-        <v>12.49238185955848</v>
+        <v>10.01972135709896</v>
       </c>
       <c r="N16">
-        <v>5.404207148797258</v>
+        <v>5.898629612655302</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.48476793736206</v>
       </c>
       <c r="P16">
-        <v>12.95025295362604</v>
+        <v>5.591043416382576</v>
       </c>
       <c r="Q16">
-        <v>15.01312473252465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.88346434306184</v>
+      </c>
+      <c r="S16">
+        <v>14.54233961465872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.21619463392505</v>
+        <v>14.8476186023783</v>
       </c>
       <c r="C17">
-        <v>8.689953979368434</v>
+        <v>8.537865444490038</v>
       </c>
       <c r="D17">
-        <v>5.78462715280362</v>
+        <v>5.833253677755317</v>
       </c>
       <c r="E17">
-        <v>7.237708884680688</v>
+        <v>7.154439867670901</v>
       </c>
       <c r="F17">
-        <v>20.64548680610592</v>
+        <v>20.04713928089405</v>
       </c>
       <c r="G17">
-        <v>22.80521164209677</v>
+        <v>21.69598435956882</v>
       </c>
       <c r="H17">
-        <v>6.070580106609454</v>
+        <v>6.033402156696048</v>
       </c>
       <c r="I17">
-        <v>3.27264643756885</v>
+        <v>3.15493426157696</v>
       </c>
       <c r="J17">
-        <v>9.358313061462946</v>
+        <v>9.368774122729643</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.921381183782817</v>
+        <v>11.6888754739078</v>
       </c>
       <c r="M17">
-        <v>12.2928174431816</v>
+        <v>10.13485507941346</v>
       </c>
       <c r="N17">
-        <v>5.558460441161971</v>
+        <v>5.877179345142474</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.30072151605489</v>
       </c>
       <c r="P17">
-        <v>12.98159468887509</v>
+        <v>5.750517004310201</v>
       </c>
       <c r="Q17">
-        <v>15.19076953851003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.9004357904845</v>
+      </c>
+      <c r="S17">
+        <v>14.74162851410595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.30043394681513</v>
+        <v>14.91761248576132</v>
       </c>
       <c r="C18">
-        <v>8.533973873276848</v>
+        <v>8.366911536803061</v>
       </c>
       <c r="D18">
-        <v>5.98551848943007</v>
+        <v>6.031764735343855</v>
       </c>
       <c r="E18">
-        <v>7.5384165651023</v>
+        <v>7.443207563028293</v>
       </c>
       <c r="F18">
-        <v>21.19495063814515</v>
+        <v>20.58263642186685</v>
       </c>
       <c r="G18">
-        <v>23.51664472683556</v>
+        <v>22.25092308311717</v>
       </c>
       <c r="H18">
-        <v>4.891616221224155</v>
+        <v>4.844412817456281</v>
       </c>
       <c r="I18">
-        <v>3.277819847751959</v>
+        <v>3.156772860977318</v>
       </c>
       <c r="J18">
-        <v>9.489385661348628</v>
+        <v>9.531848419297809</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.927447663432166</v>
+        <v>11.89837943047136</v>
       </c>
       <c r="M18">
-        <v>12.21841129275243</v>
+        <v>10.32426561497256</v>
       </c>
       <c r="N18">
-        <v>5.893090117154535</v>
+        <v>5.87346826828405</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.23285909565834</v>
       </c>
       <c r="P18">
-        <v>12.98347447364508</v>
+        <v>6.094019665310787</v>
       </c>
       <c r="Q18">
-        <v>15.50118542223254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.89091720524207</v>
+      </c>
+      <c r="S18">
+        <v>15.0408404074712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.55368175709037</v>
+        <v>15.1411030467924</v>
       </c>
       <c r="C19">
-        <v>8.395325637708252</v>
+        <v>8.217532165336536</v>
       </c>
       <c r="D19">
-        <v>6.280169063605666</v>
+        <v>6.32824131903693</v>
       </c>
       <c r="E19">
-        <v>8.017065505080426</v>
+        <v>7.905446949371961</v>
       </c>
       <c r="F19">
-        <v>21.90431051479325</v>
+        <v>21.24950369261203</v>
       </c>
       <c r="G19">
-        <v>24.42103754037664</v>
+        <v>23.05755224688725</v>
       </c>
       <c r="H19">
-        <v>3.546289335935751</v>
+        <v>3.483235549939449</v>
       </c>
       <c r="I19">
-        <v>3.265069465047545</v>
+        <v>3.146626465998157</v>
       </c>
       <c r="J19">
-        <v>9.641199569516521</v>
+        <v>9.68159304317002</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.991097146362823</v>
+        <v>12.12908500905647</v>
       </c>
       <c r="M19">
-        <v>12.25158768574726</v>
+        <v>10.55037657964061</v>
       </c>
       <c r="N19">
-        <v>6.375294522971753</v>
+        <v>5.923604420901905</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.26746188397932</v>
       </c>
       <c r="P19">
-        <v>12.96988696060319</v>
+        <v>6.587438094180881</v>
       </c>
       <c r="Q19">
-        <v>15.87817559614315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.86756475021903</v>
+      </c>
+      <c r="S19">
+        <v>15.38665066472156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.29987225669999</v>
+        <v>15.81814803951715</v>
       </c>
       <c r="C20">
-        <v>8.270563837070299</v>
+        <v>8.089546055910526</v>
       </c>
       <c r="D20">
-        <v>6.813014041166829</v>
+        <v>6.874107678411774</v>
       </c>
       <c r="E20">
-        <v>8.932371810893871</v>
+        <v>8.794079876478733</v>
       </c>
       <c r="F20">
-        <v>23.08301651466132</v>
+        <v>22.3063012374873</v>
       </c>
       <c r="G20">
-        <v>25.91292246582545</v>
+        <v>24.61594284089566</v>
       </c>
       <c r="H20">
-        <v>2.272548874987681</v>
+        <v>2.191384869405428</v>
       </c>
       <c r="I20">
-        <v>3.170502162300028</v>
+        <v>3.06433905657761</v>
       </c>
       <c r="J20">
-        <v>9.860404248267397</v>
+        <v>9.793154851481361</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.200064355122975</v>
+        <v>12.41264051110923</v>
       </c>
       <c r="M20">
-        <v>12.58186934653807</v>
+        <v>10.91639715522658</v>
       </c>
       <c r="N20">
-        <v>7.212220675628362</v>
+        <v>6.108389870555671</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.58631142668404</v>
       </c>
       <c r="P20">
-        <v>12.90332457598259</v>
+        <v>7.442864114787871</v>
       </c>
       <c r="Q20">
-        <v>16.46407109138462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.79186168210834</v>
+      </c>
+      <c r="S20">
+        <v>15.8841277487923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.26231748665593</v>
+        <v>16.67629480156293</v>
       </c>
       <c r="C21">
-        <v>8.384951752334766</v>
+        <v>8.233044764254851</v>
       </c>
       <c r="D21">
-        <v>7.110567582486545</v>
+        <v>7.232157991200781</v>
       </c>
       <c r="E21">
-        <v>9.203048770577647</v>
+        <v>9.064825844508603</v>
       </c>
       <c r="F21">
-        <v>23.51223747000344</v>
+        <v>22.44915817389058</v>
       </c>
       <c r="G21">
-        <v>26.43479110503397</v>
+        <v>26.63185453580118</v>
       </c>
       <c r="H21">
-        <v>2.037994659117826</v>
+        <v>1.978983287366502</v>
       </c>
       <c r="I21">
-        <v>3.002804535652498</v>
+        <v>2.922969751570924</v>
       </c>
       <c r="J21">
-        <v>9.866783302999304</v>
+        <v>9.195001171098575</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.263670870014672</v>
+        <v>12.20689655352748</v>
       </c>
       <c r="M21">
-        <v>13.27742352872101</v>
+        <v>10.9763482064737</v>
       </c>
       <c r="N21">
-        <v>7.504024325223477</v>
+        <v>6.159322503747565</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.21143341315249</v>
       </c>
       <c r="P21">
-        <v>12.74173313962861</v>
+        <v>7.740221772864834</v>
       </c>
       <c r="Q21">
-        <v>16.58464273269902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.65242909151844</v>
+      </c>
+      <c r="S21">
+        <v>15.79379227271224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.85774910189189</v>
+        <v>17.20453377037165</v>
       </c>
       <c r="C22">
-        <v>8.456827664769856</v>
+        <v>8.319827379765195</v>
       </c>
       <c r="D22">
-        <v>7.277930239054228</v>
+        <v>7.441733119070975</v>
       </c>
       <c r="E22">
-        <v>9.336868481229855</v>
+        <v>9.20178284767943</v>
       </c>
       <c r="F22">
-        <v>23.7654357867918</v>
+        <v>22.50400034724264</v>
       </c>
       <c r="G22">
-        <v>26.75052431053848</v>
+        <v>28.06414987734028</v>
       </c>
       <c r="H22">
-        <v>1.899940347636435</v>
+        <v>1.855012713177163</v>
       </c>
       <c r="I22">
-        <v>2.886923743321831</v>
+        <v>2.821550851024648</v>
       </c>
       <c r="J22">
-        <v>9.86842039162177</v>
+        <v>8.833975105810783</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.294201009707392</v>
+        <v>12.06643634118663</v>
       </c>
       <c r="M22">
-        <v>13.7076420081636</v>
+        <v>11.01404102493126</v>
       </c>
       <c r="N22">
-        <v>7.648941584605609</v>
+        <v>6.182581825694771</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.59402752501156</v>
       </c>
       <c r="P22">
-        <v>12.63776293753056</v>
+        <v>7.887859182520354</v>
       </c>
       <c r="Q22">
-        <v>16.65553558370106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.56526666760752</v>
+      </c>
+      <c r="S22">
+        <v>15.71621211516424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.55676698992617</v>
+        <v>16.94588697509741</v>
       </c>
       <c r="C23">
-        <v>8.409839017708617</v>
+        <v>8.266571433902218</v>
       </c>
       <c r="D23">
-        <v>7.187819240380283</v>
+        <v>7.322574125376545</v>
       </c>
       <c r="E23">
-        <v>9.269637258194088</v>
+        <v>9.130624194579344</v>
       </c>
       <c r="F23">
-        <v>23.64945956879037</v>
+        <v>22.51830810944172</v>
       </c>
       <c r="G23">
-        <v>26.61352434335615</v>
+        <v>27.14390333998026</v>
       </c>
       <c r="H23">
-        <v>1.972446925349757</v>
+        <v>1.919281387643456</v>
       </c>
       <c r="I23">
-        <v>2.937167316003526</v>
+        <v>2.861250279379174</v>
       </c>
       <c r="J23">
-        <v>9.872824769060768</v>
+        <v>9.079065933171378</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.27980555890392</v>
+        <v>12.15969445986208</v>
       </c>
       <c r="M23">
-        <v>13.47983532654812</v>
+        <v>11.01601637406709</v>
       </c>
       <c r="N23">
-        <v>7.56720281129922</v>
+        <v>6.17245167322825</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.39869546934429</v>
       </c>
       <c r="P23">
-        <v>12.69307313779978</v>
+        <v>7.805153387319621</v>
       </c>
       <c r="Q23">
-        <v>16.63089202733941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.60990125050573</v>
+      </c>
+      <c r="S23">
+        <v>15.78920248570659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.34107800774871</v>
+        <v>15.85710212937891</v>
       </c>
       <c r="C24">
-        <v>8.244290640393553</v>
+        <v>8.054728058360148</v>
       </c>
       <c r="D24">
-        <v>6.839888570675923</v>
+        <v>6.900779503176888</v>
       </c>
       <c r="E24">
-        <v>9.00377536007373</v>
+        <v>8.863831790192613</v>
       </c>
       <c r="F24">
-        <v>23.18859894560725</v>
+        <v>22.40868544555056</v>
       </c>
       <c r="G24">
-        <v>26.05913029515708</v>
+        <v>24.74317852992097</v>
       </c>
       <c r="H24">
-        <v>2.255032478509549</v>
+        <v>2.17372341625195</v>
       </c>
       <c r="I24">
-        <v>3.152113596718711</v>
+        <v>3.042677987616248</v>
       </c>
       <c r="J24">
-        <v>9.886014550652602</v>
+        <v>9.821801294005784</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.221029419521611</v>
+        <v>12.45862994734395</v>
       </c>
       <c r="M24">
-        <v>12.57917924458864</v>
+        <v>10.96041308445861</v>
       </c>
       <c r="N24">
-        <v>7.258818415908889</v>
+        <v>6.127648403838924</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.58417682174881</v>
       </c>
       <c r="P24">
-        <v>12.9053886464451</v>
+        <v>7.490567616099134</v>
       </c>
       <c r="Q24">
-        <v>16.52669104938857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.79149948340699</v>
+      </c>
+      <c r="S24">
+        <v>15.94407097367265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.91753927583325</v>
+        <v>14.49949920892724</v>
       </c>
       <c r="C25">
-        <v>8.061617734966042</v>
+        <v>7.761295328799296</v>
       </c>
       <c r="D25">
-        <v>6.447851056393793</v>
+        <v>6.500431521176843</v>
       </c>
       <c r="E25">
-        <v>8.707540901035969</v>
+        <v>8.589873239691265</v>
       </c>
       <c r="F25">
-        <v>22.71438437473843</v>
+        <v>22.04061491276342</v>
       </c>
       <c r="G25">
-        <v>25.49778493298957</v>
+        <v>24.19279924719532</v>
       </c>
       <c r="H25">
-        <v>2.574354623268839</v>
+        <v>2.471866885994111</v>
       </c>
       <c r="I25">
-        <v>3.397618652344422</v>
+        <v>3.260930432149811</v>
       </c>
       <c r="J25">
-        <v>9.911625145123585</v>
+        <v>9.892345494423077</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.154899896563512</v>
+        <v>12.69396386435493</v>
       </c>
       <c r="M25">
-        <v>11.5273133713575</v>
+        <v>10.84337066678318</v>
       </c>
       <c r="N25">
-        <v>6.913764101233874</v>
+        <v>6.070558974031184</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.54571372519917</v>
       </c>
       <c r="P25">
-        <v>13.1402825247638</v>
+        <v>7.13361539136861</v>
       </c>
       <c r="Q25">
-        <v>16.43802053084179</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.00298644942241</v>
+      </c>
+      <c r="S25">
+        <v>15.9264583477881</v>
       </c>
     </row>
   </sheetData>
